--- a/assets/levels/Level Maker.xlsx
+++ b/assets/levels/Level Maker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyad Abdelazim\Documents\Learning\LoC\sokoban\levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyad Abdelazim\Documents\Learning\LoC\sokoban\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8AA1A4-279A-4EC4-8331-BCC0D04337D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785CD51-9E27-4C9B-9143-448FE6A5B688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06C2B5DF-9460-49A2-A75E-D26C26CFECCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="7">
   <si>
     <t>#</t>
   </si>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF64F46-213D-4C9A-B903-0755EAA6CD50}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AJ33" sqref="AJ33"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:AD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,6 +4311,3348 @@
         <v>+</v>
       </c>
     </row>
+    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="6"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="6"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="6"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="6"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="6"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="6"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="6"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="6"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W52" s="10"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="6"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" s="10"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="6"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="6"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="6"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="6"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="6"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="6"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="6"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="6"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="6"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="6"/>
+    </row>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="9"/>
+    </row>
+    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="str">
+        <f>IF(OR(A44=" ", A44=""),"-",A44)</f>
+        <v>-</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f t="shared" ref="B65:AD65" si="20">IF(OR(B44=" ", B44=""),"-",B44)</f>
+        <v>-</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="H65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="P65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="Q65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="R65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="S65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="T65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="U65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="V65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="W65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="X65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="Y65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="Z65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="AA65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="AB65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="AC65" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="AD65" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="str">
+        <f t="shared" ref="A66:AD66" si="21">IF(OR(A45=" ", A45=""),"-",A45)</f>
+        <v>-</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="D66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="E66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="F66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="M66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="N66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="O66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="P66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="Q66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="R66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="S66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="T66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="U66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="V66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="W66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="X66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="Y66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="Z66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="AA66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="AB66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="AC66" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="AD66" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="str">
+        <f t="shared" ref="A67:AD67" si="22">IF(OR(A46=" ", A46=""),"-",A46)</f>
+        <v>-</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="F67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="K67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="L67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="M67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="N67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="O67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="P67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="Q67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="R67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="S67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="T67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="U67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="V67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="W67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="X67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="Y67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="Z67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AA67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AB67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AC67" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AD67" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="str">
+        <f t="shared" ref="A68:AD68" si="23">IF(OR(A47=" ", A47=""),"-",A47)</f>
+        <v>-</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="D68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="E68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="F68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="K68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="L68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="M68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="N68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="O68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="P68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="Q68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="R68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="S68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="T68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="U68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="V68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="W68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="X68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="Y68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="Z68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AA68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AB68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AC68" s="5" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AD68" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="str">
+        <f t="shared" ref="A69:AD69" si="24">IF(OR(A48=" ", A48=""),"-",A48)</f>
+        <v>-</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="E69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="F69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="K69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="L69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="M69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="N69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="O69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>#</v>
+      </c>
+      <c r="P69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="Q69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="R69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="S69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="T69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="U69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="V69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="W69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="X69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="Y69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="Z69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="AA69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="AB69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="AC69" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="AD69" s="6" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="str">
+        <f t="shared" ref="A70:AD70" si="25">IF(OR(A49=" ", A49=""),"-",A49)</f>
+        <v>-</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="E70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="F70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="G70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>@</v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="K70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="L70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="M70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="N70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="O70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="P70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="Q70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="R70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="S70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="T70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="U70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="V70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>#</v>
+      </c>
+      <c r="W70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="X70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="Y70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="Z70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="AA70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="AB70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="AC70" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+      <c r="AD70" s="6" t="str">
+        <f t="shared" si="25"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="str">
+        <f t="shared" ref="A71:AD71" si="26">IF(OR(A50=" ", A50=""),"-",A50)</f>
+        <v>-</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>#</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="K71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="L71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="M71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="N71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>$</v>
+      </c>
+      <c r="O71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="P71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="Q71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="R71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="S71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="T71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="U71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="V71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>#</v>
+      </c>
+      <c r="W71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="X71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="Y71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="Z71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="AA71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="AB71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="AC71" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="AD71" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="str">
+        <f t="shared" ref="A72:AD72" si="27">IF(OR(A51=" ", A51=""),"-",A51)</f>
+        <v>-</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="C72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="D72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="E72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="F72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>#</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="L72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="M72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="N72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>$</v>
+      </c>
+      <c r="O72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>$</v>
+      </c>
+      <c r="P72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="Q72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="R72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="S72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="T72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="U72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="V72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>#</v>
+      </c>
+      <c r="W72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="X72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="Y72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="Z72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AA72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AB72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AC72" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+      <c r="AD72" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="str">
+        <f t="shared" ref="A73:AD73" si="28">IF(OR(A52=" ", A52=""),"-",A52)</f>
+        <v>-</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="F73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>#</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="L73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="M73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>$</v>
+      </c>
+      <c r="N73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>$</v>
+      </c>
+      <c r="O73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="P73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="Q73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="R73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="S73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>.</v>
+      </c>
+      <c r="T73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>.</v>
+      </c>
+      <c r="U73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>.</v>
+      </c>
+      <c r="V73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>#</v>
+      </c>
+      <c r="W73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="Y73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="Z73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AA73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AB73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AC73" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="AD73" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="str">
+        <f t="shared" ref="A74:AD74" si="29">IF(OR(A53=" ", A53=""),"-",A53)</f>
+        <v>-</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="C74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="D74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="E74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="F74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>#</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>#</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="L74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="M74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="N74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>$</v>
+      </c>
+      <c r="O74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="P74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="Q74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="R74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="S74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>.</v>
+      </c>
+      <c r="T74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>.</v>
+      </c>
+      <c r="U74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>.</v>
+      </c>
+      <c r="V74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>#</v>
+      </c>
+      <c r="W74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="X74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="Y74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="Z74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="AA74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="AB74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="AC74" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+      <c r="AD74" s="6" t="str">
+        <f t="shared" si="29"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="str">
+        <f t="shared" ref="A75:AD75" si="30">IF(OR(A54=" ", A54=""),"-",A54)</f>
+        <v>-</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="E75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="L75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="M75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="N75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="O75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="P75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="Q75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="R75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="S75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="T75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="U75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="V75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>#</v>
+      </c>
+      <c r="W75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="X75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="Y75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="Z75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="AA75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="AB75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="AC75" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+      <c r="AD75" s="6" t="str">
+        <f t="shared" si="30"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="str">
+        <f t="shared" ref="A76:AD76" si="31">IF(OR(A55=" ", A55=""),"-",A55)</f>
+        <v>-</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="C76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="D76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="E76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="F76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="L76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="M76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="N76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="O76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="P76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="Q76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="R76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="S76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="T76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="U76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="V76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="W76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="X76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="Y76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="Z76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="AA76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="AB76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="AC76" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+      <c r="AD76" s="6" t="str">
+        <f t="shared" si="31"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="str">
+        <f t="shared" ref="A77:AD77" si="32">IF(OR(A56=" ", A56=""),"-",A56)</f>
+        <v>-</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="E77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="K77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="L77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="M77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="N77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="O77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="P77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="Q77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="R77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="S77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="T77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="U77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="V77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="W77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="X77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="Y77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="Z77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="AA77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="AB77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="AC77" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+      <c r="AD77" s="6" t="str">
+        <f t="shared" si="32"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="str">
+        <f t="shared" ref="A78:AD78" si="33">IF(OR(A57=" ", A57=""),"-",A57)</f>
+        <v>-</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="C78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="D78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="E78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="F78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="K78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="L78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="M78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="N78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="O78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="P78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="Q78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="R78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="S78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="T78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="U78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="V78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="W78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="X78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="Y78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="Z78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="AA78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="AB78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="AC78" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+      <c r="AD78" s="6" t="str">
+        <f t="shared" si="33"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="str">
+        <f t="shared" ref="A79:AD79" si="34">IF(OR(A58=" ", A58=""),"-",A58)</f>
+        <v>-</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="K79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="L79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="M79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="N79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="O79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="P79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="Q79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="R79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="S79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="T79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="U79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="V79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="W79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="X79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="Y79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="Z79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="AA79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="AB79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="AC79" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="AD79" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="str">
+        <f t="shared" ref="A80:AD80" si="35">IF(OR(A59=" ", A59=""),"-",A59)</f>
+        <v>-</v>
+      </c>
+      <c r="B80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="C80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="D80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="E80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="F80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="K80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="L80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="M80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="N80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="O80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="P80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="Q80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="R80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="S80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="T80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="U80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="V80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="W80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="X80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="Y80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="Z80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="AA80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="AB80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="AC80" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="AD80" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="str">
+        <f t="shared" ref="A81:AD81" si="36">IF(OR(A60=" ", A60=""),"-",A60)</f>
+        <v>-</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="K81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="L81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="M81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="N81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="O81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="P81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="Q81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="R81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="S81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="T81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="U81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="V81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="W81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="X81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="Y81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="Z81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="AA81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="AB81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="AC81" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+      <c r="AD81" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="str">
+        <f t="shared" ref="A82:AD82" si="37">IF(OR(A61=" ", A61=""),"-",A61)</f>
+        <v>-</v>
+      </c>
+      <c r="B82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="C82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="D82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="E82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="F82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="K82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="L82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="M82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="N82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="O82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="P82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="Q82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="R82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="S82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="T82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="U82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="V82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="W82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="X82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="Y82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="Z82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AA82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AB82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AC82" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+      <c r="AD82" s="6" t="str">
+        <f t="shared" si="37"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="str">
+        <f t="shared" ref="A83:AD83" si="38">IF(OR(A62=" ", A62=""),"-",A62)</f>
+        <v>-</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="K83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="L83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="M83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="N83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="O83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="P83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="Q83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="R83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="S83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="T83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="U83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="V83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="W83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="X83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="Y83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="Z83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AA83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AB83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AC83" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+      <c r="AD83" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="str">
+        <f t="shared" ref="A84:AD84" si="39">IF(OR(A63=" ", A63=""),"-",A63)</f>
+        <v>-</v>
+      </c>
+      <c r="B84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="D84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="E84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="F84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="J84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="K84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="L84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="M84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="N84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="O84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="P84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="Q84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="R84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="S84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="T84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="U84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="V84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="W84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="X84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="Y84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="Z84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AA84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AB84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AC84" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+      <c r="AD84" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="str">
+        <f t="shared" ref="A85:AD85" si="40">IF(OR(A64=" ", A64=""),"-",A64)</f>
+        <v>-</v>
+      </c>
+      <c r="B85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="C85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="D85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="E85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="F85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="G85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="H85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="I85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="J85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="K85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="L85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="M85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="N85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="O85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="P85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="Q85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="R85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="S85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="T85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="U85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="V85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="W85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="X85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="Y85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="Z85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AA85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AB85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AC85" s="8" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+      <c r="AD85" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>-</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AG24:AL24"/>

--- a/assets/levels/Level Maker.xlsx
+++ b/assets/levels/Level Maker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyad Abdelazim\Documents\Learning\LoC\sokoban\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785CD51-9E27-4C9B-9143-448FE6A5B688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45206E92-14CE-4277-B458-48F5888334F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06C2B5DF-9460-49A2-A75E-D26C26CFECCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Then replace remove all tabs and you will be fine</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF64F46-213D-4C9A-B903-0755EAA6CD50}">
-  <dimension ref="A1:AL85"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:AD85"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="AG77" sqref="AG77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,70 +4317,69 @@
         <v>+</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="3"/>
+    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="6"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
@@ -4405,15 +4410,21 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
+      <c r="AC45" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="AD45" s="6"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="11"/>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -4430,7 +4441,9 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
+      <c r="V46" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -4445,14 +4458,18 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="11"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -4461,7 +4478,9 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
+      <c r="U47" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
@@ -4480,37 +4499,23 @@
       <c r="E48" s="5"/>
       <c r="F48" s="10"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
+      <c r="V48" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
@@ -4528,44 +4533,26 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="S49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="U49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="V49" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
+      <c r="Y49" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -4579,18 +4566,16 @@
       <c r="D50" s="5"/>
       <c r="E50" s="10"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="11"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
@@ -4598,9 +4583,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
@@ -4618,29 +4601,21 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="5"/>
       <c r="J51" s="10"/>
       <c r="K51" s="11"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="V51" s="10"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
@@ -4658,35 +4633,21 @@
       <c r="E52" s="5"/>
       <c r="F52" s="10"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="V52" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
       <c r="W52" s="10"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
@@ -4704,35 +4665,21 @@
       <c r="E53" s="5"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="V53" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="S53" s="11"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
       <c r="W53" s="10"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
@@ -4751,48 +4698,20 @@
       <c r="F54" s="10"/>
       <c r="G54" s="5"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="V54" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
@@ -4867,2790 +4786,3302 @@
       <c r="AD56" s="6"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="6"/>
-    </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="9"/>
-    </row>
-    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="str">
+      <c r="A62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="str">
         <f>IF(OR(A44=" ", A44=""),"-",A44)</f>
         <v>-</v>
       </c>
-      <c r="B65" s="2" t="str">
-        <f t="shared" ref="B65:AD65" si="20">IF(OR(B44=" ", B44=""),"-",B44)</f>
-        <v>-</v>
-      </c>
-      <c r="C65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="D65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="F65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="H65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="J65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="M65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="N65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="O65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="P65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="Q65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="R65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="S65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="T65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="U65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="V65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="W65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="X65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="Y65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="Z65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AA65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AB65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AC65" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AD65" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:AD66" si="21">IF(OR(A45=" ", A45=""),"-",A45)</f>
-        <v>-</v>
-      </c>
-      <c r="B66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="C66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="D66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="E66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="F66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="J66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="L66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="M66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="N66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="O66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="P66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="Q66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="R66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="S66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="T66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="U66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="V66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="W66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="X66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="Y66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="Z66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="AA66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="AB66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="AC66" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>-</v>
-      </c>
-      <c r="AD66" s="6" t="str">
-        <f t="shared" si="21"/>
+      <c r="B66" s="2" t="str">
+        <f>IF(OR(B44=" ", B44=""),"-",B44)</f>
+        <v>-</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f>IF(OR(C44=" ", C44=""),"-",C44)</f>
+        <v>-</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f>IF(OR(D44=" ", D44=""),"-",D44)</f>
+        <v>-</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f>IF(OR(E44=" ", E44=""),"-",E44)</f>
+        <v>-</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f>IF(OR(F44=" ", F44=""),"-",F44)</f>
+        <v>-</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f>IF(OR(G44=" ", G44=""),"-",G44)</f>
+        <v>-</v>
+      </c>
+      <c r="H66" s="2" t="str">
+        <f>IF(OR(H44=" ", H44=""),"-",H44)</f>
+        <v>-</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>IF(OR(I44=" ", I44=""),"-",I44)</f>
+        <v>-</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f>IF(OR(J44=" ", J44=""),"-",J44)</f>
+        <v>-</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f>IF(OR(K44=" ", K44=""),"-",K44)</f>
+        <v>-</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f>IF(OR(L44=" ", L44=""),"-",L44)</f>
+        <v>-</v>
+      </c>
+      <c r="M66" s="2" t="str">
+        <f>IF(OR(M44=" ", M44=""),"-",M44)</f>
+        <v>-</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <f>IF(OR(N44=" ", N44=""),"-",N44)</f>
+        <v>-</v>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f>IF(OR(O44=" ", O44=""),"-",O44)</f>
+        <v>-</v>
+      </c>
+      <c r="P66" s="2" t="str">
+        <f>IF(OR(P44=" ", P44=""),"-",P44)</f>
+        <v>-</v>
+      </c>
+      <c r="Q66" s="2" t="str">
+        <f>IF(OR(Q44=" ", Q44=""),"-",Q44)</f>
+        <v>-</v>
+      </c>
+      <c r="R66" s="2" t="str">
+        <f>IF(OR(R44=" ", R44=""),"-",R44)</f>
+        <v>-</v>
+      </c>
+      <c r="S66" s="2" t="str">
+        <f>IF(OR(S44=" ", S44=""),"-",S44)</f>
+        <v>-</v>
+      </c>
+      <c r="T66" s="2" t="str">
+        <f>IF(OR(T44=" ", T44=""),"-",T44)</f>
+        <v>-</v>
+      </c>
+      <c r="U66" s="2" t="str">
+        <f>IF(OR(U44=" ", U44=""),"-",U44)</f>
+        <v>-</v>
+      </c>
+      <c r="V66" s="2" t="str">
+        <f>IF(OR(V44=" ", V44=""),"-",V44)</f>
+        <v>-</v>
+      </c>
+      <c r="W66" s="2" t="str">
+        <f>IF(OR(W44=" ", W44=""),"-",W44)</f>
+        <v>-</v>
+      </c>
+      <c r="X66" s="2" t="str">
+        <f>IF(OR(X44=" ", X44=""),"-",X44)</f>
+        <v>-</v>
+      </c>
+      <c r="Y66" s="2" t="str">
+        <f>IF(OR(Y44=" ", Y44=""),"-",Y44)</f>
+        <v>-</v>
+      </c>
+      <c r="Z66" s="2" t="str">
+        <f>IF(OR(Z44=" ", Z44=""),"-",Z44)</f>
+        <v>-</v>
+      </c>
+      <c r="AA66" s="2" t="str">
+        <f>IF(OR(AA44=" ", AA44=""),"-",AA44)</f>
+        <v>-</v>
+      </c>
+      <c r="AB66" s="2" t="str">
+        <f>IF(OR(AB44=" ", AB44=""),"-",AB44)</f>
+        <v>-</v>
+      </c>
+      <c r="AC66" s="2" t="str">
+        <f>IF(OR(AC44=" ", AC44=""),"-",AC44)</f>
+        <v>-</v>
+      </c>
+      <c r="AD66" s="3" t="str">
+        <f>IF(OR(AD44=" ", AD44=""),"-",AD44)</f>
         <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
-        <f t="shared" ref="A67:AD67" si="22">IF(OR(A46=" ", A46=""),"-",A46)</f>
+        <f>IF(OR(A45=" ", A45=""),"-",A45)</f>
         <v>-</v>
       </c>
       <c r="B67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(B45=" ", B45=""),"-",B45)</f>
         <v>-</v>
       </c>
       <c r="C67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(C45=" ", C45=""),"-",C45)</f>
         <v>-</v>
       </c>
       <c r="D67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(D45=" ", D45=""),"-",D45)</f>
         <v>-</v>
       </c>
       <c r="E67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(E45=" ", E45=""),"-",E45)</f>
         <v>-</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(F45=" ", F45=""),"-",F45)</f>
         <v>-</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(G45=" ", G45=""),"-",G45)</f>
         <v>-</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(H45=" ", H45=""),"-",H45)</f>
         <v>-</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(I45=" ", I45=""),"-",I45)</f>
         <v>-</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(J45=" ", J45=""),"-",J45)</f>
         <v>-</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(K45=" ", K45=""),"-",K45)</f>
         <v>-</v>
       </c>
       <c r="L67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(L45=" ", L45=""),"-",L45)</f>
         <v>-</v>
       </c>
       <c r="M67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(M45=" ", M45=""),"-",M45)</f>
         <v>-</v>
       </c>
       <c r="N67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(N45=" ", N45=""),"-",N45)</f>
         <v>-</v>
       </c>
       <c r="O67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(O45=" ", O45=""),"-",O45)</f>
         <v>-</v>
       </c>
       <c r="P67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(P45=" ", P45=""),"-",P45)</f>
         <v>-</v>
       </c>
       <c r="Q67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(Q45=" ", Q45=""),"-",Q45)</f>
         <v>-</v>
       </c>
       <c r="R67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(R45=" ", R45=""),"-",R45)</f>
         <v>-</v>
       </c>
       <c r="S67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(S45=" ", S45=""),"-",S45)</f>
         <v>-</v>
       </c>
       <c r="T67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(T45=" ", T45=""),"-",T45)</f>
         <v>-</v>
       </c>
       <c r="U67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(U45=" ", U45=""),"-",U45)</f>
         <v>-</v>
       </c>
       <c r="V67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(V45=" ", V45=""),"-",V45)</f>
         <v>-</v>
       </c>
       <c r="W67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(W45=" ", W45=""),"-",W45)</f>
         <v>-</v>
       </c>
       <c r="X67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(X45=" ", X45=""),"-",X45)</f>
         <v>-</v>
       </c>
       <c r="Y67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(Y45=" ", Y45=""),"-",Y45)</f>
         <v>-</v>
       </c>
       <c r="Z67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(Z45=" ", Z45=""),"-",Z45)</f>
         <v>-</v>
       </c>
       <c r="AA67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(AA45=" ", AA45=""),"-",AA45)</f>
         <v>-</v>
       </c>
       <c r="AB67" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(AB45=" ", AB45=""),"-",AB45)</f>
         <v>-</v>
       </c>
       <c r="AC67" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v>-</v>
+        <f>IF(OR(AC45=" ", AC45=""),"-",AC45)</f>
+        <v>*</v>
       </c>
       <c r="AD67" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR(AD45=" ", AD45=""),"-",AD45)</f>
         <v>-</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
-        <f t="shared" ref="A68:AD68" si="23">IF(OR(A47=" ", A47=""),"-",A47)</f>
+        <f>IF(OR(A46=" ", A46=""),"-",A46)</f>
         <v>-</v>
       </c>
       <c r="B68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(B46=" ", B46=""),"-",B46)</f>
         <v>-</v>
       </c>
       <c r="C68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(C46=" ", C46=""),"-",C46)</f>
         <v>-</v>
       </c>
       <c r="D68" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>-</v>
+        <f>IF(OR(D46=" ", D46=""),"-",D46)</f>
+        <v>^</v>
       </c>
       <c r="E68" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>-</v>
+        <f>IF(OR(E46=" ", E46=""),"-",E46)</f>
+        <v>^</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(F46=" ", F46=""),"-",F46)</f>
         <v>-</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(G46=" ", G46=""),"-",G46)</f>
         <v>-</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(H46=" ", H46=""),"-",H46)</f>
         <v>-</v>
       </c>
       <c r="I68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(I46=" ", I46=""),"-",I46)</f>
         <v>-</v>
       </c>
       <c r="J68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(J46=" ", J46=""),"-",J46)</f>
         <v>-</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(K46=" ", K46=""),"-",K46)</f>
         <v>-</v>
       </c>
       <c r="L68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(L46=" ", L46=""),"-",L46)</f>
         <v>-</v>
       </c>
       <c r="M68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(M46=" ", M46=""),"-",M46)</f>
         <v>-</v>
       </c>
       <c r="N68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(N46=" ", N46=""),"-",N46)</f>
         <v>-</v>
       </c>
       <c r="O68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(O46=" ", O46=""),"-",O46)</f>
         <v>-</v>
       </c>
       <c r="P68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(P46=" ", P46=""),"-",P46)</f>
         <v>-</v>
       </c>
       <c r="Q68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(Q46=" ", Q46=""),"-",Q46)</f>
         <v>-</v>
       </c>
       <c r="R68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(R46=" ", R46=""),"-",R46)</f>
         <v>-</v>
       </c>
       <c r="S68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(S46=" ", S46=""),"-",S46)</f>
         <v>-</v>
       </c>
       <c r="T68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(T46=" ", T46=""),"-",T46)</f>
         <v>-</v>
       </c>
       <c r="U68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(U46=" ", U46=""),"-",U46)</f>
         <v>-</v>
       </c>
       <c r="V68" s="5" t="str">
-        <f t="shared" si="23"/>
-        <v>-</v>
+        <f>IF(OR(V46=" ", V46=""),"-",V46)</f>
+        <v>^</v>
       </c>
       <c r="W68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(W46=" ", W46=""),"-",W46)</f>
         <v>-</v>
       </c>
       <c r="X68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(X46=" ", X46=""),"-",X46)</f>
         <v>-</v>
       </c>
       <c r="Y68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(Y46=" ", Y46=""),"-",Y46)</f>
         <v>-</v>
       </c>
       <c r="Z68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(Z46=" ", Z46=""),"-",Z46)</f>
         <v>-</v>
       </c>
       <c r="AA68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(AA46=" ", AA46=""),"-",AA46)</f>
         <v>-</v>
       </c>
       <c r="AB68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(AB46=" ", AB46=""),"-",AB46)</f>
         <v>-</v>
       </c>
       <c r="AC68" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(AC46=" ", AC46=""),"-",AC46)</f>
         <v>-</v>
       </c>
       <c r="AD68" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(OR(AD46=" ", AD46=""),"-",AD46)</f>
         <v>-</v>
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
-        <f t="shared" ref="A69:AD69" si="24">IF(OR(A48=" ", A48=""),"-",A48)</f>
+        <f>IF(OR(A47=" ", A47=""),"-",A47)</f>
         <v>-</v>
       </c>
       <c r="B69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(B47=" ", B47=""),"-",B47)</f>
         <v>-</v>
       </c>
       <c r="C69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(C47=" ", C47=""),"-",C47)</f>
         <v>-</v>
       </c>
       <c r="D69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(D47=" ", D47=""),"-",D47)</f>
         <v>-</v>
       </c>
       <c r="E69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>-</v>
+        <f>IF(OR(E47=" ", E47=""),"-",E47)</f>
+        <v>^</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(F47=" ", F47=""),"-",F47)</f>
         <v>-</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(G47=" ", G47=""),"-",G47)</f>
         <v>-</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(H47=" ", H47=""),"-",H47)</f>
+        <v>-</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(I47=" ", I47=""),"-",I47)</f>
+        <v>-</v>
       </c>
       <c r="J69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(J47=" ", J47=""),"-",J47)</f>
+        <v>-</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(K47=" ", K47=""),"-",K47)</f>
+        <v>-</v>
       </c>
       <c r="L69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(L47=" ", L47=""),"-",L47)</f>
+        <v>^</v>
       </c>
       <c r="M69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(M47=" ", M47=""),"-",M47)</f>
+        <v>-</v>
       </c>
       <c r="N69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(N47=" ", N47=""),"-",N47)</f>
+        <v>-</v>
       </c>
       <c r="O69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>#</v>
+        <f>IF(OR(O47=" ", O47=""),"-",O47)</f>
+        <v>-</v>
       </c>
       <c r="P69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(P47=" ", P47=""),"-",P47)</f>
         <v>-</v>
       </c>
       <c r="Q69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(Q47=" ", Q47=""),"-",Q47)</f>
         <v>-</v>
       </c>
       <c r="R69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(R47=" ", R47=""),"-",R47)</f>
         <v>-</v>
       </c>
       <c r="S69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(S47=" ", S47=""),"-",S47)</f>
         <v>-</v>
       </c>
       <c r="T69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(T47=" ", T47=""),"-",T47)</f>
         <v>-</v>
       </c>
       <c r="U69" s="5" t="str">
-        <f t="shared" si="24"/>
-        <v>-</v>
+        <f>IF(OR(U47=" ", U47=""),"-",U47)</f>
+        <v>^</v>
       </c>
       <c r="V69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(V47=" ", V47=""),"-",V47)</f>
         <v>-</v>
       </c>
       <c r="W69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(W47=" ", W47=""),"-",W47)</f>
         <v>-</v>
       </c>
       <c r="X69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(X47=" ", X47=""),"-",X47)</f>
         <v>-</v>
       </c>
       <c r="Y69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(Y47=" ", Y47=""),"-",Y47)</f>
         <v>-</v>
       </c>
       <c r="Z69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(Z47=" ", Z47=""),"-",Z47)</f>
         <v>-</v>
       </c>
       <c r="AA69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(AA47=" ", AA47=""),"-",AA47)</f>
         <v>-</v>
       </c>
       <c r="AB69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(AB47=" ", AB47=""),"-",AB47)</f>
         <v>-</v>
       </c>
       <c r="AC69" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(AC47=" ", AC47=""),"-",AC47)</f>
         <v>-</v>
       </c>
       <c r="AD69" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(AD47=" ", AD47=""),"-",AD47)</f>
         <v>-</v>
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
-        <f t="shared" ref="A70:AD70" si="25">IF(OR(A49=" ", A49=""),"-",A49)</f>
+        <f>IF(OR(A48=" ", A48=""),"-",A48)</f>
         <v>-</v>
       </c>
       <c r="B70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(B48=" ", B48=""),"-",B48)</f>
         <v>-</v>
       </c>
       <c r="C70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(C48=" ", C48=""),"-",C48)</f>
         <v>-</v>
       </c>
       <c r="D70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(D48=" ", D48=""),"-",D48)</f>
         <v>-</v>
       </c>
       <c r="E70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(E48=" ", E48=""),"-",E48)</f>
         <v>-</v>
       </c>
       <c r="F70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(F48=" ", F48=""),"-",F48)</f>
         <v>-</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(G48=" ", G48=""),"-",G48)</f>
         <v>-</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(H48=" ", H48=""),"-",H48)</f>
+        <v>-</v>
       </c>
       <c r="I70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>@</v>
+        <f>IF(OR(I48=" ", I48=""),"-",I48)</f>
+        <v>-</v>
       </c>
       <c r="J70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(J48=" ", J48=""),"-",J48)</f>
         <v>-</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(K48=" ", K48=""),"-",K48)</f>
         <v>-</v>
       </c>
       <c r="L70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(L48=" ", L48=""),"-",L48)</f>
         <v>-</v>
       </c>
       <c r="M70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(M48=" ", M48=""),"-",M48)</f>
         <v>-</v>
       </c>
       <c r="N70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(N48=" ", N48=""),"-",N48)</f>
         <v>-</v>
       </c>
       <c r="O70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(O48=" ", O48=""),"-",O48)</f>
+        <v>-</v>
       </c>
       <c r="P70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(P48=" ", P48=""),"-",P48)</f>
+        <v>-</v>
       </c>
       <c r="Q70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(Q48=" ", Q48=""),"-",Q48)</f>
+        <v>-</v>
       </c>
       <c r="R70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(R48=" ", R48=""),"-",R48)</f>
+        <v>-</v>
       </c>
       <c r="S70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(S48=" ", S48=""),"-",S48)</f>
+        <v>-</v>
       </c>
       <c r="T70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(T48=" ", T48=""),"-",T48)</f>
+        <v>-</v>
       </c>
       <c r="U70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(U48=" ", U48=""),"-",U48)</f>
+        <v>-</v>
       </c>
       <c r="V70" s="5" t="str">
-        <f t="shared" si="25"/>
-        <v>#</v>
+        <f>IF(OR(V48=" ", V48=""),"-",V48)</f>
+        <v>^</v>
       </c>
       <c r="W70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(W48=" ", W48=""),"-",W48)</f>
         <v>-</v>
       </c>
       <c r="X70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(X48=" ", X48=""),"-",X48)</f>
         <v>-</v>
       </c>
       <c r="Y70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(Y48=" ", Y48=""),"-",Y48)</f>
         <v>-</v>
       </c>
       <c r="Z70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(Z48=" ", Z48=""),"-",Z48)</f>
         <v>-</v>
       </c>
       <c r="AA70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(AA48=" ", AA48=""),"-",AA48)</f>
         <v>-</v>
       </c>
       <c r="AB70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(AB48=" ", AB48=""),"-",AB48)</f>
         <v>-</v>
       </c>
       <c r="AC70" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(AC48=" ", AC48=""),"-",AC48)</f>
         <v>-</v>
       </c>
       <c r="AD70" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(OR(AD48=" ", AD48=""),"-",AD48)</f>
         <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
-        <f t="shared" ref="A71:AD71" si="26">IF(OR(A50=" ", A50=""),"-",A50)</f>
+        <f>IF(OR(A49=" ", A49=""),"-",A49)</f>
         <v>-</v>
       </c>
       <c r="B71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(B49=" ", B49=""),"-",B49)</f>
         <v>-</v>
       </c>
       <c r="C71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(C49=" ", C49=""),"-",C49)</f>
         <v>-</v>
       </c>
       <c r="D71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(D49=" ", D49=""),"-",D49)</f>
         <v>-</v>
       </c>
       <c r="E71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(E49=" ", E49=""),"-",E49)</f>
         <v>-</v>
       </c>
       <c r="F71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(F49=" ", F49=""),"-",F49)</f>
         <v>-</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(G49=" ", G49=""),"-",G49)</f>
         <v>-</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="26"/>
-        <v>#</v>
+        <f>IF(OR(H49=" ", H49=""),"-",H49)</f>
+        <v>-</v>
       </c>
       <c r="I71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(I49=" ", I49=""),"-",I49)</f>
         <v>-</v>
       </c>
       <c r="J71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(J49=" ", J49=""),"-",J49)</f>
         <v>-</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(K49=" ", K49=""),"-",K49)</f>
         <v>-</v>
       </c>
       <c r="L71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(L49=" ", L49=""),"-",L49)</f>
         <v>-</v>
       </c>
       <c r="M71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(M49=" ", M49=""),"-",M49)</f>
         <v>-</v>
       </c>
       <c r="N71" s="5" t="str">
-        <f t="shared" si="26"/>
-        <v>$</v>
+        <f>IF(OR(N49=" ", N49=""),"-",N49)</f>
+        <v>-</v>
       </c>
       <c r="O71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(O49=" ", O49=""),"-",O49)</f>
         <v>-</v>
       </c>
       <c r="P71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(P49=" ", P49=""),"-",P49)</f>
         <v>-</v>
       </c>
       <c r="Q71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(Q49=" ", Q49=""),"-",Q49)</f>
         <v>-</v>
       </c>
       <c r="R71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(R49=" ", R49=""),"-",R49)</f>
         <v>-</v>
       </c>
       <c r="S71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(S49=" ", S49=""),"-",S49)</f>
         <v>-</v>
       </c>
       <c r="T71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(T49=" ", T49=""),"-",T49)</f>
         <v>-</v>
       </c>
       <c r="U71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(U49=" ", U49=""),"-",U49)</f>
         <v>-</v>
       </c>
       <c r="V71" s="5" t="str">
-        <f t="shared" si="26"/>
-        <v>#</v>
+        <f>IF(OR(V49=" ", V49=""),"-",V49)</f>
+        <v>-</v>
       </c>
       <c r="W71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(W49=" ", W49=""),"-",W49)</f>
         <v>-</v>
       </c>
       <c r="X71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(X49=" ", X49=""),"-",X49)</f>
         <v>-</v>
       </c>
       <c r="Y71" s="5" t="str">
-        <f t="shared" si="26"/>
-        <v>-</v>
+        <f>IF(OR(Y49=" ", Y49=""),"-",Y49)</f>
+        <v>^</v>
       </c>
       <c r="Z71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(Z49=" ", Z49=""),"-",Z49)</f>
         <v>-</v>
       </c>
       <c r="AA71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(AA49=" ", AA49=""),"-",AA49)</f>
         <v>-</v>
       </c>
       <c r="AB71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(AB49=" ", AB49=""),"-",AB49)</f>
         <v>-</v>
       </c>
       <c r="AC71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(AC49=" ", AC49=""),"-",AC49)</f>
         <v>-</v>
       </c>
       <c r="AD71" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(OR(AD49=" ", AD49=""),"-",AD49)</f>
         <v>-</v>
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
-        <f t="shared" ref="A72:AD72" si="27">IF(OR(A51=" ", A51=""),"-",A51)</f>
+        <f>IF(OR(A50=" ", A50=""),"-",A50)</f>
         <v>-</v>
       </c>
       <c r="B72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(B50=" ", B50=""),"-",B50)</f>
         <v>-</v>
       </c>
       <c r="C72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(C50=" ", C50=""),"-",C50)</f>
         <v>-</v>
       </c>
       <c r="D72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(D50=" ", D50=""),"-",D50)</f>
         <v>-</v>
       </c>
       <c r="E72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(E50=" ", E50=""),"-",E50)</f>
         <v>-</v>
       </c>
       <c r="F72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(F50=" ", F50=""),"-",F50)</f>
         <v>-</v>
       </c>
       <c r="G72" s="5" t="str">
-        <f t="shared" si="27"/>
-        <v>-</v>
+        <f>IF(OR(G50=" ", G50=""),"-",G50)</f>
+        <v>^</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="27"/>
-        <v>#</v>
+        <f>IF(OR(H50=" ", H50=""),"-",H50)</f>
+        <v>-</v>
       </c>
       <c r="I72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(I50=" ", I50=""),"-",I50)</f>
         <v>-</v>
       </c>
       <c r="J72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(J50=" ", J50=""),"-",J50)</f>
         <v>-</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(K50=" ", K50=""),"-",K50)</f>
         <v>-</v>
       </c>
       <c r="L72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(L50=" ", L50=""),"-",L50)</f>
         <v>-</v>
       </c>
       <c r="M72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(M50=" ", M50=""),"-",M50)</f>
         <v>-</v>
       </c>
       <c r="N72" s="5" t="str">
-        <f t="shared" si="27"/>
-        <v>$</v>
+        <f>IF(OR(N50=" ", N50=""),"-",N50)</f>
+        <v>-</v>
       </c>
       <c r="O72" s="5" t="str">
-        <f t="shared" si="27"/>
-        <v>$</v>
+        <f>IF(OR(O50=" ", O50=""),"-",O50)</f>
+        <v>-</v>
       </c>
       <c r="P72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(P50=" ", P50=""),"-",P50)</f>
         <v>-</v>
       </c>
       <c r="Q72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(Q50=" ", Q50=""),"-",Q50)</f>
         <v>-</v>
       </c>
       <c r="R72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(R50=" ", R50=""),"-",R50)</f>
         <v>-</v>
       </c>
       <c r="S72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(S50=" ", S50=""),"-",S50)</f>
         <v>-</v>
       </c>
       <c r="T72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(T50=" ", T50=""),"-",T50)</f>
         <v>-</v>
       </c>
       <c r="U72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(U50=" ", U50=""),"-",U50)</f>
         <v>-</v>
       </c>
       <c r="V72" s="5" t="str">
-        <f t="shared" si="27"/>
-        <v>#</v>
+        <f>IF(OR(V50=" ", V50=""),"-",V50)</f>
+        <v>-</v>
       </c>
       <c r="W72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(W50=" ", W50=""),"-",W50)</f>
         <v>-</v>
       </c>
       <c r="X72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(X50=" ", X50=""),"-",X50)</f>
         <v>-</v>
       </c>
       <c r="Y72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(Y50=" ", Y50=""),"-",Y50)</f>
         <v>-</v>
       </c>
       <c r="Z72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(Z50=" ", Z50=""),"-",Z50)</f>
         <v>-</v>
       </c>
       <c r="AA72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(AA50=" ", AA50=""),"-",AA50)</f>
         <v>-</v>
       </c>
       <c r="AB72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(AB50=" ", AB50=""),"-",AB50)</f>
         <v>-</v>
       </c>
       <c r="AC72" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(AC50=" ", AC50=""),"-",AC50)</f>
         <v>-</v>
       </c>
       <c r="AD72" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(AD50=" ", AD50=""),"-",AD50)</f>
         <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
-        <f t="shared" ref="A73:AD73" si="28">IF(OR(A52=" ", A52=""),"-",A52)</f>
+        <f>IF(OR(A51=" ", A51=""),"-",A51)</f>
         <v>-</v>
       </c>
       <c r="B73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(B51=" ", B51=""),"-",B51)</f>
         <v>-</v>
       </c>
       <c r="C73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(C51=" ", C51=""),"-",C51)</f>
         <v>-</v>
       </c>
       <c r="D73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(D51=" ", D51=""),"-",D51)</f>
         <v>-</v>
       </c>
       <c r="E73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(E51=" ", E51=""),"-",E51)</f>
         <v>-</v>
       </c>
       <c r="F73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(F51=" ", F51=""),"-",F51)</f>
         <v>-</v>
       </c>
       <c r="G73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(G51=" ", G51=""),"-",G51)</f>
         <v>-</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>#</v>
+        <f>IF(OR(H51=" ", H51=""),"-",H51)</f>
+        <v>-</v>
       </c>
       <c r="I73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(I51=" ", I51=""),"-",I51)</f>
         <v>-</v>
       </c>
       <c r="J73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(J51=" ", J51=""),"-",J51)</f>
         <v>-</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(K51=" ", K51=""),"-",K51)</f>
         <v>-</v>
       </c>
       <c r="L73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(L51=" ", L51=""),"-",L51)</f>
         <v>-</v>
       </c>
       <c r="M73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>$</v>
+        <f>IF(OR(M51=" ", M51=""),"-",M51)</f>
+        <v>-</v>
       </c>
       <c r="N73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>$</v>
+        <f>IF(OR(N51=" ", N51=""),"-",N51)</f>
+        <v>-</v>
       </c>
       <c r="O73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(O51=" ", O51=""),"-",O51)</f>
         <v>-</v>
       </c>
       <c r="P73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(P51=" ", P51=""),"-",P51)</f>
         <v>-</v>
       </c>
       <c r="Q73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(Q51=" ", Q51=""),"-",Q51)</f>
         <v>-</v>
       </c>
       <c r="R73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(R51=" ", R51=""),"-",R51)</f>
         <v>-</v>
       </c>
       <c r="S73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>.</v>
+        <f>IF(OR(S51=" ", S51=""),"-",S51)</f>
+        <v>-</v>
       </c>
       <c r="T73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>.</v>
+        <f>IF(OR(T51=" ", T51=""),"-",T51)</f>
+        <v>-</v>
       </c>
       <c r="U73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>.</v>
+        <f>IF(OR(U51=" ", U51=""),"-",U51)</f>
+        <v>-</v>
       </c>
       <c r="V73" s="5" t="str">
-        <f t="shared" si="28"/>
-        <v>#</v>
+        <f>IF(OR(V51=" ", V51=""),"-",V51)</f>
+        <v>-</v>
       </c>
       <c r="W73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(W51=" ", W51=""),"-",W51)</f>
         <v>-</v>
       </c>
       <c r="X73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(X51=" ", X51=""),"-",X51)</f>
         <v>-</v>
       </c>
       <c r="Y73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(Y51=" ", Y51=""),"-",Y51)</f>
         <v>-</v>
       </c>
       <c r="Z73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(Z51=" ", Z51=""),"-",Z51)</f>
         <v>-</v>
       </c>
       <c r="AA73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(AA51=" ", AA51=""),"-",AA51)</f>
         <v>-</v>
       </c>
       <c r="AB73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(AB51=" ", AB51=""),"-",AB51)</f>
         <v>-</v>
       </c>
       <c r="AC73" s="5" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(AC51=" ", AC51=""),"-",AC51)</f>
         <v>-</v>
       </c>
       <c r="AD73" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR(AD51=" ", AD51=""),"-",AD51)</f>
         <v>-</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
-        <f t="shared" ref="A74:AD74" si="29">IF(OR(A53=" ", A53=""),"-",A53)</f>
+        <f>IF(OR(A52=" ", A52=""),"-",A52)</f>
         <v>-</v>
       </c>
       <c r="B74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(B52=" ", B52=""),"-",B52)</f>
         <v>-</v>
       </c>
       <c r="C74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(C52=" ", C52=""),"-",C52)</f>
         <v>-</v>
       </c>
       <c r="D74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(D52=" ", D52=""),"-",D52)</f>
         <v>-</v>
       </c>
       <c r="E74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(E52=" ", E52=""),"-",E52)</f>
         <v>-</v>
       </c>
       <c r="F74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(F52=" ", F52=""),"-",F52)</f>
         <v>-</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(G52=" ", G52=""),"-",G52)</f>
         <v>-</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>#</v>
+        <f>IF(OR(H52=" ", H52=""),"-",H52)</f>
+        <v>-</v>
       </c>
       <c r="I74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>#</v>
+        <f>IF(OR(I52=" ", I52=""),"-",I52)</f>
+        <v>-</v>
       </c>
       <c r="J74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(J52=" ", J52=""),"-",J52)</f>
         <v>-</v>
       </c>
       <c r="K74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(K52=" ", K52=""),"-",K52)</f>
         <v>-</v>
       </c>
       <c r="L74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(L52=" ", L52=""),"-",L52)</f>
         <v>-</v>
       </c>
       <c r="M74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(M52=" ", M52=""),"-",M52)</f>
         <v>-</v>
       </c>
       <c r="N74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>$</v>
+        <f>IF(OR(N52=" ", N52=""),"-",N52)</f>
+        <v>-</v>
       </c>
       <c r="O74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(O52=" ", O52=""),"-",O52)</f>
         <v>-</v>
       </c>
       <c r="P74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(P52=" ", P52=""),"-",P52)</f>
         <v>-</v>
       </c>
       <c r="Q74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(Q52=" ", Q52=""),"-",Q52)</f>
         <v>-</v>
       </c>
       <c r="R74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(R52=" ", R52=""),"-",R52)</f>
         <v>-</v>
       </c>
       <c r="S74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
+        <f>IF(OR(S52=" ", S52=""),"-",S52)</f>
+        <v>-</v>
       </c>
       <c r="T74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
+        <f>IF(OR(T52=" ", T52=""),"-",T52)</f>
+        <v>-</v>
       </c>
       <c r="U74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
+        <f>IF(OR(U52=" ", U52=""),"-",U52)</f>
+        <v>-</v>
       </c>
       <c r="V74" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>#</v>
+        <f>IF(OR(V52=" ", V52=""),"-",V52)</f>
+        <v>-</v>
       </c>
       <c r="W74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(W52=" ", W52=""),"-",W52)</f>
         <v>-</v>
       </c>
       <c r="X74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(X52=" ", X52=""),"-",X52)</f>
         <v>-</v>
       </c>
       <c r="Y74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(Y52=" ", Y52=""),"-",Y52)</f>
         <v>-</v>
       </c>
       <c r="Z74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(Z52=" ", Z52=""),"-",Z52)</f>
         <v>-</v>
       </c>
       <c r="AA74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(AA52=" ", AA52=""),"-",AA52)</f>
         <v>-</v>
       </c>
       <c r="AB74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(AB52=" ", AB52=""),"-",AB52)</f>
         <v>-</v>
       </c>
       <c r="AC74" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(AC52=" ", AC52=""),"-",AC52)</f>
         <v>-</v>
       </c>
       <c r="AD74" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(AD52=" ", AD52=""),"-",AD52)</f>
         <v>-</v>
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
-        <f t="shared" ref="A75:AD75" si="30">IF(OR(A54=" ", A54=""),"-",A54)</f>
+        <f>IF(OR(A53=" ", A53=""),"-",A53)</f>
         <v>-</v>
       </c>
       <c r="B75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(B53=" ", B53=""),"-",B53)</f>
         <v>-</v>
       </c>
       <c r="C75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(C53=" ", C53=""),"-",C53)</f>
         <v>-</v>
       </c>
       <c r="D75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(D53=" ", D53=""),"-",D53)</f>
         <v>-</v>
       </c>
       <c r="E75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(E53=" ", E53=""),"-",E53)</f>
         <v>-</v>
       </c>
       <c r="F75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(F53=" ", F53=""),"-",F53)</f>
         <v>-</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(G53=" ", G53=""),"-",G53)</f>
         <v>-</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(H53=" ", H53=""),"-",H53)</f>
         <v>-</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(I53=" ", I53=""),"-",I53)</f>
+        <v>-</v>
       </c>
       <c r="J75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(J53=" ", J53=""),"-",J53)</f>
+        <v>-</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(K53=" ", K53=""),"-",K53)</f>
+        <v>-</v>
       </c>
       <c r="L75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(L53=" ", L53=""),"-",L53)</f>
+        <v>-</v>
       </c>
       <c r="M75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(M53=" ", M53=""),"-",M53)</f>
+        <v>-</v>
       </c>
       <c r="N75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(N53=" ", N53=""),"-",N53)</f>
+        <v>-</v>
       </c>
       <c r="O75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(O53=" ", O53=""),"-",O53)</f>
+        <v>-</v>
       </c>
       <c r="P75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(P53=" ", P53=""),"-",P53)</f>
+        <v>-</v>
       </c>
       <c r="Q75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(Q53=" ", Q53=""),"-",Q53)</f>
+        <v>-</v>
       </c>
       <c r="R75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(R53=" ", R53=""),"-",R53)</f>
+        <v>-</v>
       </c>
       <c r="S75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(S53=" ", S53=""),"-",S53)</f>
+        <v>-</v>
       </c>
       <c r="T75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(T53=" ", T53=""),"-",T53)</f>
+        <v>-</v>
       </c>
       <c r="U75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(U53=" ", U53=""),"-",U53)</f>
+        <v>-</v>
       </c>
       <c r="V75" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>#</v>
+        <f>IF(OR(V53=" ", V53=""),"-",V53)</f>
+        <v>-</v>
       </c>
       <c r="W75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(W53=" ", W53=""),"-",W53)</f>
         <v>-</v>
       </c>
       <c r="X75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(X53=" ", X53=""),"-",X53)</f>
         <v>-</v>
       </c>
       <c r="Y75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(Y53=" ", Y53=""),"-",Y53)</f>
         <v>-</v>
       </c>
       <c r="Z75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(Z53=" ", Z53=""),"-",Z53)</f>
         <v>-</v>
       </c>
       <c r="AA75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(AA53=" ", AA53=""),"-",AA53)</f>
         <v>-</v>
       </c>
       <c r="AB75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(AB53=" ", AB53=""),"-",AB53)</f>
         <v>-</v>
       </c>
       <c r="AC75" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(AC53=" ", AC53=""),"-",AC53)</f>
         <v>-</v>
       </c>
       <c r="AD75" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(OR(AD53=" ", AD53=""),"-",AD53)</f>
         <v>-</v>
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
-        <f t="shared" ref="A76:AD76" si="31">IF(OR(A55=" ", A55=""),"-",A55)</f>
+        <f>IF(OR(A54=" ", A54=""),"-",A54)</f>
         <v>-</v>
       </c>
       <c r="B76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(B54=" ", B54=""),"-",B54)</f>
         <v>-</v>
       </c>
       <c r="C76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(C54=" ", C54=""),"-",C54)</f>
         <v>-</v>
       </c>
       <c r="D76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(D54=" ", D54=""),"-",D54)</f>
         <v>-</v>
       </c>
       <c r="E76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(E54=" ", E54=""),"-",E54)</f>
         <v>-</v>
       </c>
       <c r="F76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(F54=" ", F54=""),"-",F54)</f>
         <v>-</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(G54=" ", G54=""),"-",G54)</f>
         <v>-</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(H54=" ", H54=""),"-",H54)</f>
         <v>-</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(I54=" ", I54=""),"-",I54)</f>
         <v>-</v>
       </c>
       <c r="J76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(J54=" ", J54=""),"-",J54)</f>
         <v>-</v>
       </c>
       <c r="K76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(K54=" ", K54=""),"-",K54)</f>
         <v>-</v>
       </c>
       <c r="L76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(L54=" ", L54=""),"-",L54)</f>
         <v>-</v>
       </c>
       <c r="M76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(M54=" ", M54=""),"-",M54)</f>
         <v>-</v>
       </c>
       <c r="N76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(N54=" ", N54=""),"-",N54)</f>
         <v>-</v>
       </c>
       <c r="O76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(O54=" ", O54=""),"-",O54)</f>
         <v>-</v>
       </c>
       <c r="P76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(P54=" ", P54=""),"-",P54)</f>
         <v>-</v>
       </c>
       <c r="Q76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(Q54=" ", Q54=""),"-",Q54)</f>
         <v>-</v>
       </c>
       <c r="R76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(R54=" ", R54=""),"-",R54)</f>
         <v>-</v>
       </c>
       <c r="S76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(S54=" ", S54=""),"-",S54)</f>
         <v>-</v>
       </c>
       <c r="T76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(T54=" ", T54=""),"-",T54)</f>
         <v>-</v>
       </c>
       <c r="U76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(U54=" ", U54=""),"-",U54)</f>
         <v>-</v>
       </c>
       <c r="V76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(V54=" ", V54=""),"-",V54)</f>
         <v>-</v>
       </c>
       <c r="W76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(W54=" ", W54=""),"-",W54)</f>
         <v>-</v>
       </c>
       <c r="X76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(X54=" ", X54=""),"-",X54)</f>
         <v>-</v>
       </c>
       <c r="Y76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(Y54=" ", Y54=""),"-",Y54)</f>
         <v>-</v>
       </c>
       <c r="Z76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(Z54=" ", Z54=""),"-",Z54)</f>
         <v>-</v>
       </c>
       <c r="AA76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(AA54=" ", AA54=""),"-",AA54)</f>
         <v>-</v>
       </c>
       <c r="AB76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(AB54=" ", AB54=""),"-",AB54)</f>
         <v>-</v>
       </c>
       <c r="AC76" s="5" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(AC54=" ", AC54=""),"-",AC54)</f>
         <v>-</v>
       </c>
       <c r="AD76" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(OR(AD54=" ", AD54=""),"-",AD54)</f>
         <v>-</v>
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="str">
-        <f t="shared" ref="A77:AD77" si="32">IF(OR(A56=" ", A56=""),"-",A56)</f>
+        <f>IF(OR(A55=" ", A55=""),"-",A55)</f>
         <v>-</v>
       </c>
       <c r="B77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(B55=" ", B55=""),"-",B55)</f>
         <v>-</v>
       </c>
       <c r="C77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(C55=" ", C55=""),"-",C55)</f>
         <v>-</v>
       </c>
       <c r="D77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(D55=" ", D55=""),"-",D55)</f>
         <v>-</v>
       </c>
       <c r="E77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(E55=" ", E55=""),"-",E55)</f>
         <v>-</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(F55=" ", F55=""),"-",F55)</f>
         <v>-</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(G55=" ", G55=""),"-",G55)</f>
         <v>-</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(H55=" ", H55=""),"-",H55)</f>
         <v>-</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(I55=" ", I55=""),"-",I55)</f>
         <v>-</v>
       </c>
       <c r="J77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(J55=" ", J55=""),"-",J55)</f>
         <v>-</v>
       </c>
       <c r="K77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(K55=" ", K55=""),"-",K55)</f>
         <v>-</v>
       </c>
       <c r="L77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(L55=" ", L55=""),"-",L55)</f>
         <v>-</v>
       </c>
       <c r="M77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(M55=" ", M55=""),"-",M55)</f>
         <v>-</v>
       </c>
       <c r="N77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(N55=" ", N55=""),"-",N55)</f>
         <v>-</v>
       </c>
       <c r="O77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(O55=" ", O55=""),"-",O55)</f>
         <v>-</v>
       </c>
       <c r="P77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(P55=" ", P55=""),"-",P55)</f>
         <v>-</v>
       </c>
       <c r="Q77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(Q55=" ", Q55=""),"-",Q55)</f>
         <v>-</v>
       </c>
       <c r="R77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(R55=" ", R55=""),"-",R55)</f>
         <v>-</v>
       </c>
       <c r="S77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(S55=" ", S55=""),"-",S55)</f>
         <v>-</v>
       </c>
       <c r="T77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(T55=" ", T55=""),"-",T55)</f>
         <v>-</v>
       </c>
       <c r="U77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(U55=" ", U55=""),"-",U55)</f>
         <v>-</v>
       </c>
       <c r="V77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(V55=" ", V55=""),"-",V55)</f>
         <v>-</v>
       </c>
       <c r="W77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(W55=" ", W55=""),"-",W55)</f>
         <v>-</v>
       </c>
       <c r="X77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(X55=" ", X55=""),"-",X55)</f>
         <v>-</v>
       </c>
       <c r="Y77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(Y55=" ", Y55=""),"-",Y55)</f>
         <v>-</v>
       </c>
       <c r="Z77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(Z55=" ", Z55=""),"-",Z55)</f>
         <v>-</v>
       </c>
       <c r="AA77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(AA55=" ", AA55=""),"-",AA55)</f>
         <v>-</v>
       </c>
       <c r="AB77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(AB55=" ", AB55=""),"-",AB55)</f>
         <v>-</v>
       </c>
       <c r="AC77" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(AC55=" ", AC55=""),"-",AC55)</f>
         <v>-</v>
       </c>
       <c r="AD77" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(OR(AD55=" ", AD55=""),"-",AD55)</f>
         <v>-</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="str">
-        <f t="shared" ref="A78:AD78" si="33">IF(OR(A57=" ", A57=""),"-",A57)</f>
+        <f>IF(OR(A56=" ", A56=""),"-",A56)</f>
         <v>-</v>
       </c>
       <c r="B78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(B56=" ", B56=""),"-",B56)</f>
         <v>-</v>
       </c>
       <c r="C78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(C56=" ", C56=""),"-",C56)</f>
         <v>-</v>
       </c>
       <c r="D78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(D56=" ", D56=""),"-",D56)</f>
         <v>-</v>
       </c>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(E56=" ", E56=""),"-",E56)</f>
         <v>-</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(F56=" ", F56=""),"-",F56)</f>
         <v>-</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(G56=" ", G56=""),"-",G56)</f>
         <v>-</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(H56=" ", H56=""),"-",H56)</f>
         <v>-</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(I56=" ", I56=""),"-",I56)</f>
         <v>-</v>
       </c>
       <c r="J78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(J56=" ", J56=""),"-",J56)</f>
         <v>-</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(K56=" ", K56=""),"-",K56)</f>
         <v>-</v>
       </c>
       <c r="L78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(L56=" ", L56=""),"-",L56)</f>
         <v>-</v>
       </c>
       <c r="M78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(M56=" ", M56=""),"-",M56)</f>
         <v>-</v>
       </c>
       <c r="N78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(N56=" ", N56=""),"-",N56)</f>
         <v>-</v>
       </c>
       <c r="O78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(O56=" ", O56=""),"-",O56)</f>
         <v>-</v>
       </c>
       <c r="P78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(P56=" ", P56=""),"-",P56)</f>
         <v>-</v>
       </c>
       <c r="Q78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(Q56=" ", Q56=""),"-",Q56)</f>
         <v>-</v>
       </c>
       <c r="R78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(R56=" ", R56=""),"-",R56)</f>
         <v>-</v>
       </c>
       <c r="S78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(S56=" ", S56=""),"-",S56)</f>
         <v>-</v>
       </c>
       <c r="T78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(T56=" ", T56=""),"-",T56)</f>
         <v>-</v>
       </c>
       <c r="U78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(U56=" ", U56=""),"-",U56)</f>
         <v>-</v>
       </c>
       <c r="V78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(V56=" ", V56=""),"-",V56)</f>
         <v>-</v>
       </c>
       <c r="W78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(W56=" ", W56=""),"-",W56)</f>
         <v>-</v>
       </c>
       <c r="X78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(X56=" ", X56=""),"-",X56)</f>
         <v>-</v>
       </c>
       <c r="Y78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(Y56=" ", Y56=""),"-",Y56)</f>
         <v>-</v>
       </c>
       <c r="Z78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(Z56=" ", Z56=""),"-",Z56)</f>
         <v>-</v>
       </c>
       <c r="AA78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(AA56=" ", AA56=""),"-",AA56)</f>
         <v>-</v>
       </c>
       <c r="AB78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(AB56=" ", AB56=""),"-",AB56)</f>
         <v>-</v>
       </c>
       <c r="AC78" s="5" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(AC56=" ", AC56=""),"-",AC56)</f>
         <v>-</v>
       </c>
       <c r="AD78" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(OR(AD56=" ", AD56=""),"-",AD56)</f>
         <v>-</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="str">
-        <f t="shared" ref="A79:AD79" si="34">IF(OR(A58=" ", A58=""),"-",A58)</f>
-        <v>-</v>
+        <f>IF(OR(A57=" ", A57=""),"-",A57)</f>
+        <v>$</v>
       </c>
       <c r="B79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(B57=" ", B57=""),"-",B57)</f>
+        <v>$</v>
       </c>
       <c r="C79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(C57=" ", C57=""),"-",C57)</f>
+        <v>$</v>
       </c>
       <c r="D79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(D57=" ", D57=""),"-",D57)</f>
+        <v>$</v>
       </c>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(E57=" ", E57=""),"-",E57)</f>
+        <v>$</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(F57=" ", F57=""),"-",F57)</f>
+        <v>$</v>
       </c>
       <c r="G79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(G57=" ", G57=""),"-",G57)</f>
+        <v>$</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(H57=" ", H57=""),"-",H57)</f>
+        <v>$</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(I57=" ", I57=""),"-",I57)</f>
+        <v>$</v>
       </c>
       <c r="J79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(J57=" ", J57=""),"-",J57)</f>
+        <v>$</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(K57=" ", K57=""),"-",K57)</f>
+        <v>$</v>
       </c>
       <c r="L79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(L57=" ", L57=""),"-",L57)</f>
+        <v>$</v>
       </c>
       <c r="M79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(M57=" ", M57=""),"-",M57)</f>
+        <v>$</v>
       </c>
       <c r="N79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(N57=" ", N57=""),"-",N57)</f>
+        <v>$</v>
       </c>
       <c r="O79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(O57=" ", O57=""),"-",O57)</f>
+        <v>#</v>
       </c>
       <c r="P79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(P57=" ", P57=""),"-",P57)</f>
+        <v>#</v>
       </c>
       <c r="Q79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(Q57=" ", Q57=""),"-",Q57)</f>
+        <v>#</v>
       </c>
       <c r="R79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(R57=" ", R57=""),"-",R57)</f>
+        <v>#</v>
       </c>
       <c r="S79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(S57=" ", S57=""),"-",S57)</f>
+        <v>#</v>
       </c>
       <c r="T79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(T57=" ", T57=""),"-",T57)</f>
+        <v>#</v>
       </c>
       <c r="U79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(U57=" ", U57=""),"-",U57)</f>
+        <v>#</v>
       </c>
       <c r="V79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(V57=" ", V57=""),"-",V57)</f>
+        <v>#</v>
       </c>
       <c r="W79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(W57=" ", W57=""),"-",W57)</f>
+        <v>#</v>
       </c>
       <c r="X79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(X57=" ", X57=""),"-",X57)</f>
+        <v>#</v>
       </c>
       <c r="Y79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(Y57=" ", Y57=""),"-",Y57)</f>
+        <v>#</v>
       </c>
       <c r="Z79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(Z57=" ", Z57=""),"-",Z57)</f>
+        <v>#</v>
       </c>
       <c r="AA79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(AA57=" ", AA57=""),"-",AA57)</f>
+        <v>#</v>
       </c>
       <c r="AB79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(AB57=" ", AB57=""),"-",AB57)</f>
+        <v>#</v>
       </c>
       <c r="AC79" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(AC57=" ", AC57=""),"-",AC57)</f>
+        <v>#</v>
       </c>
       <c r="AD79" s="6" t="str">
-        <f t="shared" si="34"/>
-        <v>-</v>
+        <f>IF(OR(AD57=" ", AD57=""),"-",AD57)</f>
+        <v>#</v>
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="str">
-        <f t="shared" ref="A80:AD80" si="35">IF(OR(A59=" ", A59=""),"-",A59)</f>
-        <v>-</v>
+        <f>IF(OR(A58=" ", A58=""),"-",A58)</f>
+        <v>$</v>
       </c>
       <c r="B80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(B58=" ", B58=""),"-",B58)</f>
+        <v>$</v>
       </c>
       <c r="C80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(C58=" ", C58=""),"-",C58)</f>
+        <v>$</v>
       </c>
       <c r="D80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(D58=" ", D58=""),"-",D58)</f>
+        <v>$</v>
       </c>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(E58=" ", E58=""),"-",E58)</f>
+        <v>$</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(F58=" ", F58=""),"-",F58)</f>
+        <v>$</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(G58=" ", G58=""),"-",G58)</f>
+        <v>$</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(H58=" ", H58=""),"-",H58)</f>
+        <v>$</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(I58=" ", I58=""),"-",I58)</f>
+        <v>$</v>
       </c>
       <c r="J80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(J58=" ", J58=""),"-",J58)</f>
+        <v>$</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(K58=" ", K58=""),"-",K58)</f>
+        <v>$</v>
       </c>
       <c r="L80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(L58=" ", L58=""),"-",L58)</f>
+        <v>$</v>
       </c>
       <c r="M80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(M58=" ", M58=""),"-",M58)</f>
+        <v>#</v>
       </c>
       <c r="N80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(N58=" ", N58=""),"-",N58)</f>
+        <v>#</v>
       </c>
       <c r="O80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(O58=" ", O58=""),"-",O58)</f>
+        <v>#</v>
       </c>
       <c r="P80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(P58=" ", P58=""),"-",P58)</f>
+        <v>#</v>
       </c>
       <c r="Q80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(Q58=" ", Q58=""),"-",Q58)</f>
+        <v>#</v>
       </c>
       <c r="R80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(R58=" ", R58=""),"-",R58)</f>
+        <v>#</v>
       </c>
       <c r="S80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(S58=" ", S58=""),"-",S58)</f>
+        <v>#</v>
       </c>
       <c r="T80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(T58=" ", T58=""),"-",T58)</f>
+        <v>#</v>
       </c>
       <c r="U80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(U58=" ", U58=""),"-",U58)</f>
+        <v>#</v>
       </c>
       <c r="V80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(V58=" ", V58=""),"-",V58)</f>
+        <v>#</v>
       </c>
       <c r="W80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(W58=" ", W58=""),"-",W58)</f>
+        <v>#</v>
       </c>
       <c r="X80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(X58=" ", X58=""),"-",X58)</f>
+        <v>#</v>
       </c>
       <c r="Y80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(Y58=" ", Y58=""),"-",Y58)</f>
+        <v>#</v>
       </c>
       <c r="Z80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(Z58=" ", Z58=""),"-",Z58)</f>
+        <v>#</v>
       </c>
       <c r="AA80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(AA58=" ", AA58=""),"-",AA58)</f>
+        <v>#</v>
       </c>
       <c r="AB80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(AB58=" ", AB58=""),"-",AB58)</f>
+        <v>#</v>
       </c>
       <c r="AC80" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(AC58=" ", AC58=""),"-",AC58)</f>
+        <v>#</v>
       </c>
       <c r="AD80" s="6" t="str">
-        <f t="shared" si="35"/>
-        <v>-</v>
+        <f>IF(OR(AD58=" ", AD58=""),"-",AD58)</f>
+        <v>#</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="str">
-        <f t="shared" ref="A81:AD81" si="36">IF(OR(A60=" ", A60=""),"-",A60)</f>
-        <v>-</v>
+        <f>IF(OR(A59=" ", A59=""),"-",A59)</f>
+        <v>$</v>
       </c>
       <c r="B81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(B59=" ", B59=""),"-",B59)</f>
+        <v>$</v>
       </c>
       <c r="C81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(C59=" ", C59=""),"-",C59)</f>
+        <v>$</v>
       </c>
       <c r="D81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(D59=" ", D59=""),"-",D59)</f>
+        <v>$</v>
       </c>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(E59=" ", E59=""),"-",E59)</f>
+        <v>$</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(F59=" ", F59=""),"-",F59)</f>
+        <v>$</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(G59=" ", G59=""),"-",G59)</f>
+        <v>$</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(H59=" ", H59=""),"-",H59)</f>
+        <v>$</v>
       </c>
       <c r="I81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(I59=" ", I59=""),"-",I59)</f>
+        <v>$</v>
       </c>
       <c r="J81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(J59=" ", J59=""),"-",J59)</f>
+        <v>$</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(K59=" ", K59=""),"-",K59)</f>
+        <v>$</v>
       </c>
       <c r="L81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(L59=" ", L59=""),"-",L59)</f>
+        <v>#</v>
       </c>
       <c r="M81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(M59=" ", M59=""),"-",M59)</f>
+        <v>#</v>
       </c>
       <c r="N81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(N59=" ", N59=""),"-",N59)</f>
+        <v>#</v>
       </c>
       <c r="O81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(O59=" ", O59=""),"-",O59)</f>
+        <v>#</v>
       </c>
       <c r="P81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(P59=" ", P59=""),"-",P59)</f>
+        <v>#</v>
       </c>
       <c r="Q81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(Q59=" ", Q59=""),"-",Q59)</f>
+        <v>#</v>
       </c>
       <c r="R81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(R59=" ", R59=""),"-",R59)</f>
+        <v>#</v>
       </c>
       <c r="S81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(S59=" ", S59=""),"-",S59)</f>
+        <v>#</v>
       </c>
       <c r="T81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(T59=" ", T59=""),"-",T59)</f>
+        <v>#</v>
       </c>
       <c r="U81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(U59=" ", U59=""),"-",U59)</f>
+        <v>#</v>
       </c>
       <c r="V81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(V59=" ", V59=""),"-",V59)</f>
+        <v>#</v>
       </c>
       <c r="W81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(W59=" ", W59=""),"-",W59)</f>
+        <v>#</v>
       </c>
       <c r="X81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(X59=" ", X59=""),"-",X59)</f>
+        <v>#</v>
       </c>
       <c r="Y81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(Y59=" ", Y59=""),"-",Y59)</f>
+        <v>#</v>
       </c>
       <c r="Z81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(Z59=" ", Z59=""),"-",Z59)</f>
+        <v>#</v>
       </c>
       <c r="AA81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(AA59=" ", AA59=""),"-",AA59)</f>
+        <v>#</v>
       </c>
       <c r="AB81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(AB59=" ", AB59=""),"-",AB59)</f>
+        <v>#</v>
       </c>
       <c r="AC81" s="5" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(AC59=" ", AC59=""),"-",AC59)</f>
+        <v>#</v>
       </c>
       <c r="AD81" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v>-</v>
+        <f>IF(OR(AD59=" ", AD59=""),"-",AD59)</f>
+        <v>#</v>
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="str">
-        <f t="shared" ref="A82:AD82" si="37">IF(OR(A61=" ", A61=""),"-",A61)</f>
-        <v>-</v>
+        <f>IF(OR(A60=" ", A60=""),"-",A60)</f>
+        <v>$</v>
       </c>
       <c r="B82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(B60=" ", B60=""),"-",B60)</f>
+        <v>$</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(C60=" ", C60=""),"-",C60)</f>
+        <v>$</v>
       </c>
       <c r="D82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(D60=" ", D60=""),"-",D60)</f>
+        <v>$</v>
       </c>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(E60=" ", E60=""),"-",E60)</f>
+        <v>$</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(F60=" ", F60=""),"-",F60)</f>
+        <v>$</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(G60=" ", G60=""),"-",G60)</f>
+        <v>$</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(H60=" ", H60=""),"-",H60)</f>
+        <v>$</v>
       </c>
       <c r="I82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(I60=" ", I60=""),"-",I60)</f>
+        <v>$</v>
       </c>
       <c r="J82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(J60=" ", J60=""),"-",J60)</f>
+        <v>#</v>
       </c>
       <c r="K82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(K60=" ", K60=""),"-",K60)</f>
+        <v>#</v>
       </c>
       <c r="L82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(L60=" ", L60=""),"-",L60)</f>
+        <v>#</v>
       </c>
       <c r="M82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(M60=" ", M60=""),"-",M60)</f>
+        <v>#</v>
       </c>
       <c r="N82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(N60=" ", N60=""),"-",N60)</f>
+        <v>#</v>
       </c>
       <c r="O82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(O60=" ", O60=""),"-",O60)</f>
+        <v>#</v>
       </c>
       <c r="P82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(P60=" ", P60=""),"-",P60)</f>
+        <v>#</v>
       </c>
       <c r="Q82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(Q60=" ", Q60=""),"-",Q60)</f>
+        <v>#</v>
       </c>
       <c r="R82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(R60=" ", R60=""),"-",R60)</f>
+        <v>#</v>
       </c>
       <c r="S82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(S60=" ", S60=""),"-",S60)</f>
+        <v>#</v>
       </c>
       <c r="T82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(T60=" ", T60=""),"-",T60)</f>
+        <v>#</v>
       </c>
       <c r="U82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(U60=" ", U60=""),"-",U60)</f>
+        <v>#</v>
       </c>
       <c r="V82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(V60=" ", V60=""),"-",V60)</f>
+        <v>#</v>
       </c>
       <c r="W82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(W60=" ", W60=""),"-",W60)</f>
+        <v>#</v>
       </c>
       <c r="X82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(X60=" ", X60=""),"-",X60)</f>
+        <v>#</v>
       </c>
       <c r="Y82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(Y60=" ", Y60=""),"-",Y60)</f>
+        <v>#</v>
       </c>
       <c r="Z82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(Z60=" ", Z60=""),"-",Z60)</f>
+        <v>#</v>
       </c>
       <c r="AA82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(AA60=" ", AA60=""),"-",AA60)</f>
+        <v>#</v>
       </c>
       <c r="AB82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(AB60=" ", AB60=""),"-",AB60)</f>
+        <v>#</v>
       </c>
       <c r="AC82" s="5" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(AC60=" ", AC60=""),"-",AC60)</f>
+        <v>#</v>
       </c>
       <c r="AD82" s="6" t="str">
-        <f t="shared" si="37"/>
-        <v>-</v>
+        <f>IF(OR(AD60=" ", AD60=""),"-",AD60)</f>
+        <v>#</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="str">
-        <f t="shared" ref="A83:AD83" si="38">IF(OR(A62=" ", A62=""),"-",A62)</f>
-        <v>-</v>
+        <f>IF(OR(A61=" ", A61=""),"-",A61)</f>
+        <v>$</v>
       </c>
       <c r="B83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(B61=" ", B61=""),"-",B61)</f>
+        <v>$</v>
       </c>
       <c r="C83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(C61=" ", C61=""),"-",C61)</f>
+        <v>$</v>
       </c>
       <c r="D83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(D61=" ", D61=""),"-",D61)</f>
+        <v>$</v>
       </c>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(E61=" ", E61=""),"-",E61)</f>
+        <v>$</v>
       </c>
       <c r="F83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(F61=" ", F61=""),"-",F61)</f>
+        <v>$</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(G61=" ", G61=""),"-",G61)</f>
+        <v>$</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(H61=" ", H61=""),"-",H61)</f>
+        <v>$</v>
       </c>
       <c r="I83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(I61=" ", I61=""),"-",I61)</f>
+        <v>$</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(J61=" ", J61=""),"-",J61)</f>
+        <v>#</v>
       </c>
       <c r="K83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(K61=" ", K61=""),"-",K61)</f>
+        <v>#</v>
       </c>
       <c r="L83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(L61=" ", L61=""),"-",L61)</f>
+        <v>#</v>
       </c>
       <c r="M83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(M61=" ", M61=""),"-",M61)</f>
+        <v>#</v>
       </c>
       <c r="N83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(N61=" ", N61=""),"-",N61)</f>
+        <v>#</v>
       </c>
       <c r="O83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(O61=" ", O61=""),"-",O61)</f>
+        <v>#</v>
       </c>
       <c r="P83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(P61=" ", P61=""),"-",P61)</f>
+        <v>#</v>
       </c>
       <c r="Q83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(Q61=" ", Q61=""),"-",Q61)</f>
+        <v>#</v>
       </c>
       <c r="R83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(R61=" ", R61=""),"-",R61)</f>
+        <v>#</v>
       </c>
       <c r="S83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(S61=" ", S61=""),"-",S61)</f>
+        <v>#</v>
       </c>
       <c r="T83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(T61=" ", T61=""),"-",T61)</f>
+        <v>#</v>
       </c>
       <c r="U83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(U61=" ", U61=""),"-",U61)</f>
+        <v>#</v>
       </c>
       <c r="V83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(V61=" ", V61=""),"-",V61)</f>
+        <v>#</v>
       </c>
       <c r="W83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(W61=" ", W61=""),"-",W61)</f>
+        <v>#</v>
       </c>
       <c r="X83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(X61=" ", X61=""),"-",X61)</f>
+        <v>#</v>
       </c>
       <c r="Y83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(Y61=" ", Y61=""),"-",Y61)</f>
+        <v>#</v>
       </c>
       <c r="Z83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(Z61=" ", Z61=""),"-",Z61)</f>
+        <v>#</v>
       </c>
       <c r="AA83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(AA61=" ", AA61=""),"-",AA61)</f>
+        <v>#</v>
       </c>
       <c r="AB83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(AB61=" ", AB61=""),"-",AB61)</f>
+        <v>#</v>
       </c>
       <c r="AC83" s="5" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(AC61=" ", AC61=""),"-",AC61)</f>
+        <v>#</v>
       </c>
       <c r="AD83" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v>-</v>
+        <f>IF(OR(AD61=" ", AD61=""),"-",AD61)</f>
+        <v>#</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="str">
-        <f t="shared" ref="A84:AD84" si="39">IF(OR(A63=" ", A63=""),"-",A63)</f>
-        <v>-</v>
+        <f>IF(OR(A62=" ", A62=""),"-",A62)</f>
+        <v>$</v>
       </c>
       <c r="B84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(B62=" ", B62=""),"-",B62)</f>
+        <v>$</v>
       </c>
       <c r="C84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(C62=" ", C62=""),"-",C62)</f>
+        <v>$</v>
       </c>
       <c r="D84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(D62=" ", D62=""),"-",D62)</f>
+        <v>$</v>
       </c>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(E62=" ", E62=""),"-",E62)</f>
+        <v>$</v>
       </c>
       <c r="F84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(F62=" ", F62=""),"-",F62)</f>
+        <v>$</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(G62=" ", G62=""),"-",G62)</f>
+        <v>$</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(H62=" ", H62=""),"-",H62)</f>
+        <v>$</v>
       </c>
       <c r="I84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(I62=" ", I62=""),"-",I62)</f>
+        <v>#</v>
       </c>
       <c r="J84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(J62=" ", J62=""),"-",J62)</f>
+        <v>#</v>
       </c>
       <c r="K84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(K62=" ", K62=""),"-",K62)</f>
+        <v>#</v>
       </c>
       <c r="L84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(L62=" ", L62=""),"-",L62)</f>
+        <v>#</v>
       </c>
       <c r="M84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(M62=" ", M62=""),"-",M62)</f>
+        <v>#</v>
       </c>
       <c r="N84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(N62=" ", N62=""),"-",N62)</f>
+        <v>#</v>
       </c>
       <c r="O84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(O62=" ", O62=""),"-",O62)</f>
+        <v>#</v>
       </c>
       <c r="P84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(P62=" ", P62=""),"-",P62)</f>
+        <v>#</v>
       </c>
       <c r="Q84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(Q62=" ", Q62=""),"-",Q62)</f>
+        <v>#</v>
       </c>
       <c r="R84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(R62=" ", R62=""),"-",R62)</f>
+        <v>#</v>
       </c>
       <c r="S84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(S62=" ", S62=""),"-",S62)</f>
+        <v>#</v>
       </c>
       <c r="T84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(T62=" ", T62=""),"-",T62)</f>
+        <v>#</v>
       </c>
       <c r="U84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(U62=" ", U62=""),"-",U62)</f>
+        <v>#</v>
       </c>
       <c r="V84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(V62=" ", V62=""),"-",V62)</f>
+        <v>#</v>
       </c>
       <c r="W84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(W62=" ", W62=""),"-",W62)</f>
+        <v>#</v>
       </c>
       <c r="X84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(X62=" ", X62=""),"-",X62)</f>
+        <v>#</v>
       </c>
       <c r="Y84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(Y62=" ", Y62=""),"-",Y62)</f>
+        <v>#</v>
       </c>
       <c r="Z84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(Z62=" ", Z62=""),"-",Z62)</f>
+        <v>#</v>
       </c>
       <c r="AA84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(AA62=" ", AA62=""),"-",AA62)</f>
+        <v>#</v>
       </c>
       <c r="AB84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(AB62=" ", AB62=""),"-",AB62)</f>
+        <v>#</v>
       </c>
       <c r="AC84" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
+        <f>IF(OR(AC62=" ", AC62=""),"-",AC62)</f>
+        <v>#</v>
       </c>
       <c r="AD84" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="str">
-        <f t="shared" ref="A85:AD85" si="40">IF(OR(A64=" ", A64=""),"-",A64)</f>
-        <v>-</v>
-      </c>
-      <c r="B85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="C85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="D85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="E85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="F85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="G85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="H85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="I85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="J85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="K85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="L85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="M85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="N85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="O85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="P85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="Q85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="R85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="S85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="T85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="U85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="V85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="W85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="X85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="Y85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="Z85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AA85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AB85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AC85" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
-      </c>
-      <c r="AD85" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>-</v>
+        <f>IF(OR(AD62=" ", AD62=""),"-",AD62)</f>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="str">
+        <f>IF(OR(A63=" ", A63=""),"-",A63)</f>
+        <v>$</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <f>IF(OR(B63=" ", B63=""),"-",B63)</f>
+        <v>$</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f>IF(OR(C63=" ", C63=""),"-",C63)</f>
+        <v>$</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <f>IF(OR(D63=" ", D63=""),"-",D63)</f>
+        <v>$</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <f>IF(OR(E63=" ", E63=""),"-",E63)</f>
+        <v>$</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <f>IF(OR(F63=" ", F63=""),"-",F63)</f>
+        <v>$</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <f>IF(OR(G63=" ", G63=""),"-",G63)</f>
+        <v>$</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f>IF(OR(H63=" ", H63=""),"-",H63)</f>
+        <v>$</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f>IF(OR(I63=" ", I63=""),"-",I63)</f>
+        <v>#</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <f>IF(OR(J63=" ", J63=""),"-",J63)</f>
+        <v>#</v>
+      </c>
+      <c r="K85" s="5" t="str">
+        <f>IF(OR(K63=" ", K63=""),"-",K63)</f>
+        <v>#</v>
+      </c>
+      <c r="L85" s="5" t="str">
+        <f>IF(OR(L63=" ", L63=""),"-",L63)</f>
+        <v>#</v>
+      </c>
+      <c r="M85" s="5" t="str">
+        <f>IF(OR(M63=" ", M63=""),"-",M63)</f>
+        <v>#</v>
+      </c>
+      <c r="N85" s="5" t="str">
+        <f>IF(OR(N63=" ", N63=""),"-",N63)</f>
+        <v>#</v>
+      </c>
+      <c r="O85" s="5" t="str">
+        <f>IF(OR(O63=" ", O63=""),"-",O63)</f>
+        <v>#</v>
+      </c>
+      <c r="P85" s="5" t="str">
+        <f>IF(OR(P63=" ", P63=""),"-",P63)</f>
+        <v>#</v>
+      </c>
+      <c r="Q85" s="5" t="str">
+        <f>IF(OR(Q63=" ", Q63=""),"-",Q63)</f>
+        <v>#</v>
+      </c>
+      <c r="R85" s="5" t="str">
+        <f>IF(OR(R63=" ", R63=""),"-",R63)</f>
+        <v>#</v>
+      </c>
+      <c r="S85" s="5" t="str">
+        <f>IF(OR(S63=" ", S63=""),"-",S63)</f>
+        <v>#</v>
+      </c>
+      <c r="T85" s="5" t="str">
+        <f>IF(OR(T63=" ", T63=""),"-",T63)</f>
+        <v>#</v>
+      </c>
+      <c r="U85" s="5" t="str">
+        <f>IF(OR(U63=" ", U63=""),"-",U63)</f>
+        <v>#</v>
+      </c>
+      <c r="V85" s="5" t="str">
+        <f>IF(OR(V63=" ", V63=""),"-",V63)</f>
+        <v>#</v>
+      </c>
+      <c r="W85" s="5" t="str">
+        <f>IF(OR(W63=" ", W63=""),"-",W63)</f>
+        <v>#</v>
+      </c>
+      <c r="X85" s="5" t="str">
+        <f>IF(OR(X63=" ", X63=""),"-",X63)</f>
+        <v>#</v>
+      </c>
+      <c r="Y85" s="5" t="str">
+        <f>IF(OR(Y63=" ", Y63=""),"-",Y63)</f>
+        <v>#</v>
+      </c>
+      <c r="Z85" s="5" t="str">
+        <f>IF(OR(Z63=" ", Z63=""),"-",Z63)</f>
+        <v>#</v>
+      </c>
+      <c r="AA85" s="5" t="str">
+        <f>IF(OR(AA63=" ", AA63=""),"-",AA63)</f>
+        <v>#</v>
+      </c>
+      <c r="AB85" s="5" t="str">
+        <f>IF(OR(AB63=" ", AB63=""),"-",AB63)</f>
+        <v>#</v>
+      </c>
+      <c r="AC85" s="5" t="str">
+        <f>IF(OR(AC63=" ", AC63=""),"-",AC63)</f>
+        <v>#</v>
+      </c>
+      <c r="AD85" s="6" t="str">
+        <f>IF(OR(AD63=" ", AD63=""),"-",AD63)</f>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="str">
+        <f>IF(OR(A64=" ", A64=""),"-",A64)</f>
+        <v>$</v>
+      </c>
+      <c r="B86" s="8" t="str">
+        <f>IF(OR(B64=" ", B64=""),"-",B64)</f>
+        <v>$</v>
+      </c>
+      <c r="C86" s="8" t="str">
+        <f>IF(OR(C64=" ", C64=""),"-",C64)</f>
+        <v>$</v>
+      </c>
+      <c r="D86" s="8" t="str">
+        <f>IF(OR(D64=" ", D64=""),"-",D64)</f>
+        <v>$</v>
+      </c>
+      <c r="E86" s="8" t="str">
+        <f>IF(OR(E64=" ", E64=""),"-",E64)</f>
+        <v>$</v>
+      </c>
+      <c r="F86" s="8" t="str">
+        <f>IF(OR(F64=" ", F64=""),"-",F64)</f>
+        <v>$</v>
+      </c>
+      <c r="G86" s="8" t="str">
+        <f>IF(OR(G64=" ", G64=""),"-",G64)</f>
+        <v>$</v>
+      </c>
+      <c r="H86" s="8" t="str">
+        <f>IF(OR(H64=" ", H64=""),"-",H64)</f>
+        <v>#</v>
+      </c>
+      <c r="I86" s="8" t="str">
+        <f>IF(OR(I64=" ", I64=""),"-",I64)</f>
+        <v>#</v>
+      </c>
+      <c r="J86" s="8" t="str">
+        <f>IF(OR(J64=" ", J64=""),"-",J64)</f>
+        <v>#</v>
+      </c>
+      <c r="K86" s="8" t="str">
+        <f>IF(OR(K64=" ", K64=""),"-",K64)</f>
+        <v>#</v>
+      </c>
+      <c r="L86" s="8" t="str">
+        <f>IF(OR(L64=" ", L64=""),"-",L64)</f>
+        <v>#</v>
+      </c>
+      <c r="M86" s="8" t="str">
+        <f>IF(OR(M64=" ", M64=""),"-",M64)</f>
+        <v>#</v>
+      </c>
+      <c r="N86" s="8" t="str">
+        <f>IF(OR(N64=" ", N64=""),"-",N64)</f>
+        <v>#</v>
+      </c>
+      <c r="O86" s="8" t="str">
+        <f>IF(OR(O64=" ", O64=""),"-",O64)</f>
+        <v>#</v>
+      </c>
+      <c r="P86" s="8" t="str">
+        <f>IF(OR(P64=" ", P64=""),"-",P64)</f>
+        <v>#</v>
+      </c>
+      <c r="Q86" s="8" t="str">
+        <f>IF(OR(Q64=" ", Q64=""),"-",Q64)</f>
+        <v>#</v>
+      </c>
+      <c r="R86" s="8" t="str">
+        <f>IF(OR(R64=" ", R64=""),"-",R64)</f>
+        <v>#</v>
+      </c>
+      <c r="S86" s="8" t="str">
+        <f>IF(OR(S64=" ", S64=""),"-",S64)</f>
+        <v>#</v>
+      </c>
+      <c r="T86" s="8" t="str">
+        <f>IF(OR(T64=" ", T64=""),"-",T64)</f>
+        <v>#</v>
+      </c>
+      <c r="U86" s="8" t="str">
+        <f>IF(OR(U64=" ", U64=""),"-",U64)</f>
+        <v>#</v>
+      </c>
+      <c r="V86" s="8" t="str">
+        <f>IF(OR(V64=" ", V64=""),"-",V64)</f>
+        <v>#</v>
+      </c>
+      <c r="W86" s="8" t="str">
+        <f>IF(OR(W64=" ", W64=""),"-",W64)</f>
+        <v>#</v>
+      </c>
+      <c r="X86" s="8" t="str">
+        <f>IF(OR(X64=" ", X64=""),"-",X64)</f>
+        <v>#</v>
+      </c>
+      <c r="Y86" s="8" t="str">
+        <f>IF(OR(Y64=" ", Y64=""),"-",Y64)</f>
+        <v>#</v>
+      </c>
+      <c r="Z86" s="8" t="str">
+        <f>IF(OR(Z64=" ", Z64=""),"-",Z64)</f>
+        <v>#</v>
+      </c>
+      <c r="AA86" s="8" t="str">
+        <f>IF(OR(AA64=" ", AA64=""),"-",AA64)</f>
+        <v>#</v>
+      </c>
+      <c r="AB86" s="8" t="str">
+        <f>IF(OR(AB64=" ", AB64=""),"-",AB64)</f>
+        <v>#</v>
+      </c>
+      <c r="AC86" s="8" t="str">
+        <f>IF(OR(AC64=" ", AC64=""),"-",AC64)</f>
+        <v>#</v>
+      </c>
+      <c r="AD86" s="9" t="str">
+        <f>IF(OR(AD64=" ", AD64=""),"-",AD64)</f>
+        <v>#</v>
       </c>
     </row>
   </sheetData>
